--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H2">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I2">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J2">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>20.663166128185</v>
+        <v>0.014211951093</v>
       </c>
       <c r="R2">
-        <v>123.97899676911</v>
+        <v>0.056847804372</v>
       </c>
       <c r="S2">
-        <v>0.001362608773929303</v>
+        <v>1.029774687264825E-07</v>
       </c>
       <c r="T2">
-        <v>0.0009092969956958846</v>
+        <v>4.581517679590738E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H3">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I3">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J3">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.7334195234003332</v>
+        <v>0.0009275491086666665</v>
       </c>
       <c r="R3">
-        <v>6.600775710603</v>
+        <v>0.005565294651999999</v>
       </c>
       <c r="S3">
-        <v>4.836450867968333E-05</v>
+        <v>6.720868845168234E-09</v>
       </c>
       <c r="T3">
-        <v>4.84119542771548E-05</v>
+        <v>4.485220866828835E-09</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H4">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I4">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J4">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>3145.469201230646</v>
+        <v>6.504474150731333</v>
       </c>
       <c r="R4">
-        <v>28309.22281107582</v>
+        <v>39.026844904388</v>
       </c>
       <c r="S4">
-        <v>0.2074243562255941</v>
+        <v>4.713035381672977E-05</v>
       </c>
       <c r="T4">
-        <v>0.2076278395810529</v>
+        <v>3.145278553557772E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H5">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I5">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J5">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>17.510517380148</v>
+        <v>0.012264456732</v>
       </c>
       <c r="R5">
-        <v>157.594656421332</v>
+        <v>0.049057826928</v>
       </c>
       <c r="S5">
-        <v>0.001154710970729974</v>
+        <v>8.886624371996965E-08</v>
       </c>
       <c r="T5">
-        <v>0.001155843742537416</v>
+        <v>3.953702414294795E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H6">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I6">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J6">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>3843.632665523161</v>
+        <v>0.898575015236</v>
       </c>
       <c r="R6">
-        <v>34592.69398970845</v>
+        <v>5.391450091416</v>
       </c>
       <c r="S6">
-        <v>0.2534639445529722</v>
+        <v>6.510927312115518E-06</v>
       </c>
       <c r="T6">
-        <v>0.2537125927583418</v>
+        <v>4.34511485277694E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1347426666666667</v>
+        <v>0.081538</v>
       </c>
       <c r="H7">
-        <v>0.404228</v>
+        <v>0.163076</v>
       </c>
       <c r="I7">
-        <v>0.000968581456306409</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J7">
-        <v>0.0009685814563064089</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>0.04318435095333333</v>
+        <v>3.025152943575333</v>
       </c>
       <c r="R7">
-        <v>0.25910610572</v>
+        <v>18.150917661452</v>
       </c>
       <c r="S7">
-        <v>2.84774245826687E-06</v>
+        <v>2.191976250138474E-05</v>
       </c>
       <c r="T7">
-        <v>1.900357396313101E-06</v>
+        <v>1.462831345649954E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1347426666666667</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H8">
-        <v>0.404228</v>
+        <v>243.05191</v>
       </c>
       <c r="I8">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J8">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>0.001532787661777778</v>
+        <v>14.121194445045</v>
       </c>
       <c r="R8">
-        <v>0.013795088956</v>
+        <v>84.72716667026999</v>
       </c>
       <c r="S8">
-        <v>1.010779230807277E-07</v>
+        <v>0.0001023198609275709</v>
       </c>
       <c r="T8">
-        <v>1.011770805534832E-07</v>
+        <v>6.828390583061253E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>81.01730333333333</v>
+      </c>
+      <c r="H9">
+        <v>243.05191</v>
+      </c>
+      <c r="I9">
+        <v>0.07527581200038437</v>
+      </c>
+      <c r="J9">
+        <v>0.07529018829269545</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.1347426666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.404228</v>
-      </c>
-      <c r="I9">
-        <v>0.000968581456306409</v>
-      </c>
-      <c r="J9">
-        <v>0.0009685814563064089</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>6.573776983458668</v>
+        <v>0.9216258369522221</v>
       </c>
       <c r="R9">
-        <v>59.16399285112801</v>
+        <v>8.294632532569999</v>
       </c>
       <c r="S9">
-        <v>0.0004335001780437262</v>
+        <v>6.677949788963975E-06</v>
       </c>
       <c r="T9">
-        <v>0.0004339254418479651</v>
+        <v>6.684867782227941E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1347426666666667</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H10">
-        <v>0.404228</v>
+        <v>243.05191</v>
       </c>
       <c r="I10">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J10">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>0.036595569296</v>
+        <v>6462.936977772648</v>
       </c>
       <c r="R10">
-        <v>0.329360123664</v>
+        <v>58166.43279995383</v>
       </c>
       <c r="S10">
-        <v>2.413252814226272E-06</v>
+        <v>0.04682938226811205</v>
       </c>
       <c r="T10">
-        <v>2.415620215958376E-06</v>
+        <v>0.04687789496457195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,76 +1086,76 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1347426666666667</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H11">
-        <v>0.404228</v>
+        <v>243.05191</v>
       </c>
       <c r="I11">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J11">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>8.032882324710224</v>
+        <v>12.18613666358</v>
       </c>
       <c r="R11">
-        <v>72.29594092239202</v>
+        <v>73.11681998147999</v>
       </c>
       <c r="S11">
-        <v>0.000529719205067109</v>
+        <v>8.829874933840308E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005302388597656188</v>
+        <v>5.892681469780722E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.50600166666668</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H12">
-        <v>223.518005</v>
+        <v>243.05191</v>
       </c>
       <c r="I12">
-        <v>0.5355774335117884</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J12">
-        <v>0.5355774335117883</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>23.87880100415833</v>
+        <v>892.8367703050067</v>
       </c>
       <c r="R12">
-        <v>143.27280602495</v>
+        <v>8035.53093274506</v>
       </c>
       <c r="S12">
-        <v>0.001574660125042319</v>
+        <v>0.006469348929664054</v>
       </c>
       <c r="T12">
-        <v>0.001050803244730446</v>
+        <v>0.006476050823768083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.50600166666668</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H13">
-        <v>223.518005</v>
+        <v>243.05191</v>
       </c>
       <c r="I13">
-        <v>0.5355774335117884</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J13">
-        <v>0.5355774335117883</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>0.8475554396261111</v>
+        <v>3005.834502432841</v>
       </c>
       <c r="R13">
-        <v>7.627998956635</v>
+        <v>27052.51052189557</v>
       </c>
       <c r="S13">
-        <v>5.589107067434148E-05</v>
+        <v>0.02177978424255332</v>
       </c>
       <c r="T13">
-        <v>5.594589983137948E-05</v>
+        <v>0.02180234691604476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>74.50600166666668</v>
+        <v>0.534989</v>
       </c>
       <c r="H14">
-        <v>223.518005</v>
+        <v>1.069978</v>
       </c>
       <c r="I14">
-        <v>0.5355774335117884</v>
+        <v>0.0004970756829634497</v>
       </c>
       <c r="J14">
-        <v>0.5355774335117883</v>
+        <v>0.0003314470768365561</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>3634.972136164738</v>
+        <v>0.0932477802165</v>
       </c>
       <c r="R14">
-        <v>32714.74922548264</v>
+        <v>0.372991120866</v>
       </c>
       <c r="S14">
-        <v>0.2397040654370268</v>
+        <v>6.756581350598755E-07</v>
       </c>
       <c r="T14">
-        <v>0.2399392151968708</v>
+        <v>3.006035911950955E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>74.50600166666668</v>
+        <v>0.534989</v>
       </c>
       <c r="H15">
-        <v>223.518005</v>
+        <v>1.069978</v>
       </c>
       <c r="I15">
-        <v>0.5355774335117884</v>
+        <v>0.0004970756829634497</v>
       </c>
       <c r="J15">
-        <v>0.5355774335117883</v>
+        <v>0.0003314470768365561</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>20.23553202866</v>
+        <v>0.006085856534333333</v>
       </c>
       <c r="R15">
-        <v>182.11978825794</v>
+        <v>0.036515139206</v>
       </c>
       <c r="S15">
-        <v>0.001334408934058234</v>
+        <v>4.409711916661813E-08</v>
       </c>
       <c r="T15">
-        <v>0.001335717989621415</v>
+        <v>2.942853425793976E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.534989</v>
+      </c>
+      <c r="H16">
+        <v>1.069978</v>
+      </c>
+      <c r="I16">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J16">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N16">
+        <v>239.316913</v>
+      </c>
+      <c r="O16">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P16">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q16">
+        <v>42.67730532298567</v>
+      </c>
+      <c r="R16">
+        <v>256.063831937914</v>
+      </c>
+      <c r="S16">
+        <v>0.0003092327608974766</v>
+      </c>
+      <c r="T16">
+        <v>0.0002063687394943853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.534989</v>
+      </c>
+      <c r="H17">
+        <v>1.069978</v>
+      </c>
+      <c r="I17">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J17">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.150414</v>
+      </c>
+      <c r="N17">
+        <v>0.300828</v>
+      </c>
+      <c r="O17">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P17">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q17">
+        <v>0.080469835446</v>
+      </c>
+      <c r="R17">
+        <v>0.321879341784</v>
+      </c>
+      <c r="S17">
+        <v>5.830712411575321E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.594112316859818E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.534989</v>
+      </c>
+      <c r="H18">
+        <v>1.069978</v>
+      </c>
+      <c r="I18">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J18">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.020322</v>
+      </c>
+      <c r="N18">
+        <v>33.060966</v>
+      </c>
+      <c r="O18">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P18">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q18">
+        <v>5.895751046458001</v>
+      </c>
+      <c r="R18">
+        <v>35.374506278748</v>
+      </c>
+      <c r="S18">
+        <v>4.271964595380521E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.850926745777775E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.534989</v>
+      </c>
+      <c r="H19">
+        <v>1.069978</v>
+      </c>
+      <c r="I19">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J19">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N19">
+        <v>111.303427</v>
+      </c>
+      <c r="O19">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P19">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q19">
+        <v>19.84870303576767</v>
+      </c>
+      <c r="R19">
+        <v>119.092218214606</v>
+      </c>
+      <c r="S19">
+        <v>0.0001438204496167838</v>
+      </c>
+      <c r="T19">
+        <v>9.597962652725398E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H20">
+        <v>2849.293091</v>
+      </c>
+      <c r="I20">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J20">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.1742985</v>
+      </c>
+      <c r="N20">
+        <v>0.348597</v>
+      </c>
+      <c r="O20">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P20">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q20">
+        <v>165.5425039405545</v>
+      </c>
+      <c r="R20">
+        <v>993.2550236433271</v>
+      </c>
+      <c r="S20">
+        <v>0.001199493856324802</v>
+      </c>
+      <c r="T20">
+        <v>0.000800490977872418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H21">
+        <v>2849.293091</v>
+      </c>
+      <c r="I21">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J21">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.034127</v>
+      </c>
+      <c r="O21">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P21">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q21">
+        <v>10.80420281295078</v>
+      </c>
+      <c r="R21">
+        <v>97.23782531655701</v>
+      </c>
+      <c r="S21">
+        <v>7.828548311239341E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.836658262076842E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H22">
+        <v>2849.293091</v>
+      </c>
+      <c r="I22">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J22">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N22">
+        <v>239.316913</v>
+      </c>
+      <c r="O22">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P22">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q22">
+        <v>75764.89186337202</v>
+      </c>
+      <c r="R22">
+        <v>681884.0267703482</v>
+      </c>
+      <c r="S22">
+        <v>0.5489799909506146</v>
+      </c>
+      <c r="T22">
+        <v>0.5495487044030166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>74.50600166666668</v>
-      </c>
-      <c r="H16">
-        <v>223.518005</v>
-      </c>
-      <c r="I16">
-        <v>0.5355774335117884</v>
-      </c>
-      <c r="J16">
-        <v>0.5355774335117883</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.61647133333334</v>
-      </c>
-      <c r="N16">
-        <v>178.849414</v>
-      </c>
-      <c r="O16">
-        <v>0.546902071703026</v>
-      </c>
-      <c r="P16">
-        <v>0.5474385827988417</v>
-      </c>
-      <c r="Q16">
-        <v>4441.78491252212</v>
-      </c>
-      <c r="R16">
-        <v>39976.06421269908</v>
-      </c>
-      <c r="S16">
-        <v>0.2929084079449867</v>
-      </c>
-      <c r="T16">
-        <v>0.2931957511807343</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H23">
+        <v>2849.293091</v>
+      </c>
+      <c r="I23">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J23">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.150414</v>
+      </c>
+      <c r="N23">
+        <v>0.300828</v>
+      </c>
+      <c r="O23">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P23">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q23">
+        <v>142.857856996558</v>
+      </c>
+      <c r="R23">
+        <v>857.1471419793481</v>
+      </c>
+      <c r="S23">
+        <v>0.001035124621871323</v>
+      </c>
+      <c r="T23">
+        <v>0.0006907979698373874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H24">
+        <v>2849.293091</v>
+      </c>
+      <c r="I24">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J24">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.020322</v>
+      </c>
+      <c r="N24">
+        <v>33.060966</v>
+      </c>
+      <c r="O24">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P24">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q24">
+        <v>10466.70911173177</v>
+      </c>
+      <c r="R24">
+        <v>94200.38200558593</v>
+      </c>
+      <c r="S24">
+        <v>0.07584005905800137</v>
+      </c>
+      <c r="T24">
+        <v>0.07591862523988091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H25">
+        <v>2849.293091</v>
+      </c>
+      <c r="I25">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J25">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N25">
+        <v>111.303427</v>
+      </c>
+      <c r="O25">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P25">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q25">
+        <v>35237.34283952477</v>
+      </c>
+      <c r="R25">
+        <v>317136.0855557229</v>
+      </c>
+      <c r="S25">
+        <v>0.2553240119190088</v>
+      </c>
+      <c r="T25">
+        <v>0.255588513727259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H26">
+        <v>134.623594</v>
+      </c>
+      <c r="I26">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J26">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1742985</v>
+      </c>
+      <c r="N26">
+        <v>0.348597</v>
+      </c>
+      <c r="O26">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P26">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q26">
+        <v>7.821563499602999</v>
+      </c>
+      <c r="R26">
+        <v>46.929380997618</v>
+      </c>
+      <c r="S26">
+        <v>5.667376740898586E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.782165223583149E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H27">
+        <v>134.623594</v>
+      </c>
+      <c r="I27">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J27">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.034127</v>
+      </c>
+      <c r="O27">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P27">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.5104777102708888</v>
+      </c>
+      <c r="R27">
+        <v>4.594299392438</v>
+      </c>
+      <c r="S27">
+        <v>3.698837837324017E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.702669632418584E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H28">
+        <v>134.623594</v>
+      </c>
+      <c r="I28">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J28">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N28">
+        <v>239.316913</v>
+      </c>
+      <c r="O28">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P28">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q28">
+        <v>3579.744770338369</v>
+      </c>
+      <c r="R28">
+        <v>32217.70293304532</v>
+      </c>
+      <c r="S28">
+        <v>0.02593824399788965</v>
+      </c>
+      <c r="T28">
+        <v>0.02596511460981804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H29">
+        <v>134.623594</v>
+      </c>
+      <c r="I29">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J29">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.150414</v>
+      </c>
+      <c r="N29">
+        <v>0.300828</v>
+      </c>
+      <c r="O29">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P29">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q29">
+        <v>6.749757755971999</v>
+      </c>
+      <c r="R29">
+        <v>40.498546535832</v>
+      </c>
+      <c r="S29">
+        <v>4.890763862600768E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.263886952211498E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H30">
+        <v>134.623594</v>
+      </c>
+      <c r="I30">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J30">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.020322</v>
+      </c>
+      <c r="N30">
+        <v>33.060966</v>
+      </c>
+      <c r="O30">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P30">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q30">
+        <v>494.5317848924226</v>
+      </c>
+      <c r="R30">
+        <v>4450.786064031804</v>
+      </c>
+      <c r="S30">
+        <v>0.003583296275069091</v>
+      </c>
+      <c r="T30">
+        <v>0.00358700837538088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H31">
+        <v>134.623594</v>
+      </c>
+      <c r="I31">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J31">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N31">
+        <v>111.303427</v>
+      </c>
+      <c r="O31">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P31">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q31">
+        <v>1664.896374139626</v>
+      </c>
+      <c r="R31">
+        <v>14984.06736725664</v>
+      </c>
+      <c r="S31">
+        <v>0.01206356630267623</v>
+      </c>
+      <c r="T31">
+        <v>0.01207606350212497</v>
       </c>
     </row>
   </sheetData>
